--- a/biology/Zoologie/Hasora_khoda/Hasora_khoda.xlsx
+++ b/biology/Zoologie/Hasora_khoda/Hasora_khoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hasora khoda est une espèce de papillons de la famille des Hesperiidae, de la sous-famille des Coeliadinae et du genre Hasora.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hasora khoda a été nommé par Paul Mabille en 1876[1].
-Nom vernaculaire
-Hasora khoda se nomme Large Banded Awl en anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hasora khoda a été nommé par Paul Mabille en 1876.
 </t>
         </is>
       </c>
@@ -541,16 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hasora khoda khoda ; Nouvelle-Calédonie[2]
-Hasora khoda coulteri Wood-Mason et de Nicéville, [1887] ; Inde, Birmanie et Thaïlande
-Hasora khoda dampierensis Rothschild, 1915 ; Nouvelle-Guinée
-Hasora khoda haslia Swinhoe, 1899 ; Australie
-Hasora khoda latalba de Jong, 1982[1]</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hasora khoda se nomme Large Banded Awl en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -575,16 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un papillon qui présente la forme caractéristique des Hesperiidae, massif avec les ailes positionnées en « V » et au profil triangulaire.
-D'une envergure d'environ 44 mm est de couleur marron foncé pour le mâle, marron plus clair pour la femelle avec une ornementation de petites taches jaunes dans la partie centrale des ailes antérieures et sur le revers des ailes postérieures une ligne blanche en travers[3].
-Chenille
-La chenille est noire avec des lignes longitudinales blanches et des poils blancs[3].
-</t>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hasora khoda khoda ; Nouvelle-Calédonie
+Hasora khoda coulteri Wood-Mason et de Nicéville,  ; Inde, Birmanie et Thaïlande
+Hasora khoda dampierensis Rothschild, 1915 ; Nouvelle-Guinée
+Hasora khoda haslia Swinhoe, 1899 ; Australie
+Hasora khoda latalba de Jong, 1982</t>
         </is>
       </c>
     </row>
@@ -609,15 +626,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Il vole toute l'année[4]
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Millettia megasperma et Wisteria sinensis[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon qui présente la forme caractéristique des Hesperiidae, massif avec les ailes positionnées en « V » et au profil triangulaire.
+D'une envergure d'environ 44 mm est de couleur marron foncé pour le mâle, marron plus clair pour la femelle avec une ornementation de petites taches jaunes dans la partie centrale des ailes antérieures et sur le revers des ailes postérieures une ligne blanche en travers.
 </t>
         </is>
       </c>
@@ -643,16 +660,199 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est noire avec des lignes longitudinales blanches et des poils blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Millettia megasperma et Wisteria sinensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hasora khoda est présent en Asie en Inde, Birmanie, Thaïlande, Philippines et en Océanie, en Nouvelle-Guinée, en Australie et en Nouvelle-Calédonie [1]. C'est dans l'ile des pins en Nouvelle-Calédonie que l'espèce a été découverte[3].
-Biotope
-Il réside dans la forêt humide.
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hasora khoda est présent en Asie en Inde, Birmanie, Thaïlande, Philippines et en Océanie, en Nouvelle-Guinée, en Australie et en Nouvelle-Calédonie . C'est dans l'ile des pins en Nouvelle-Calédonie que l'espèce a été découverte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hasora_khoda</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
